--- a/simulation_data/iterative_algorithm/i_error_level_10_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_10_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.92114990784897</v>
+        <v>90.04472653288029</v>
       </c>
       <c r="D2" t="n">
-        <v>10.68643870949337</v>
+        <v>9.64634421924268</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.35247960031252</v>
+        <v>91.01320889634158</v>
       </c>
       <c r="D3" t="n">
-        <v>10.52504527617429</v>
+        <v>9.616861427602377</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.07931484025511</v>
+        <v>88.28452531380525</v>
       </c>
       <c r="D4" t="n">
-        <v>10.40565790926151</v>
+        <v>9.278745719444133</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.85284490079704</v>
+        <v>86.04356394790507</v>
       </c>
       <c r="D5" t="n">
-        <v>10.67238015233074</v>
+        <v>9.227036345763254</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.45600921321713</v>
+        <v>85.74078684636126</v>
       </c>
       <c r="D6" t="n">
-        <v>9.422504919338996</v>
+        <v>9.381312182717844</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.6701625882738</v>
+        <v>84.21671120916898</v>
       </c>
       <c r="D7" t="n">
-        <v>10.69080666505372</v>
+        <v>9.260350873442432</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.32397670170585</v>
+        <v>83.46018985649449</v>
       </c>
       <c r="D8" t="n">
-        <v>11.31227602913364</v>
+        <v>9.577762656902935</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.81136795349801</v>
+        <v>82.53627395277252</v>
       </c>
       <c r="D9" t="n">
-        <v>11.65363738674069</v>
+        <v>12.51401765372975</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>80.97151162430372</v>
+        <v>81.00707741083467</v>
       </c>
       <c r="D10" t="n">
-        <v>10.24542273138194</v>
+        <v>10.34099066192658</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.18435259806512</v>
+        <v>81.33402336456201</v>
       </c>
       <c r="D11" t="n">
-        <v>11.26496063572639</v>
+        <v>10.52250651452993</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.15950974116623</v>
+        <v>81.19288875119419</v>
       </c>
       <c r="D12" t="n">
-        <v>11.83166087442189</v>
+        <v>11.87479005797878</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.51862028630107</v>
+        <v>79.07538082217098</v>
       </c>
       <c r="D13" t="n">
-        <v>9.768202601939734</v>
+        <v>9.756467921603864</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.78345281520997</v>
+        <v>76.66863810175211</v>
       </c>
       <c r="D14" t="n">
-        <v>11.62637916921951</v>
+        <v>10.24815345671787</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.84954147968352</v>
+        <v>76.02347264626604</v>
       </c>
       <c r="D15" t="n">
-        <v>10.19409099939856</v>
+        <v>12.00708148997439</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>74.52437374903376</v>
+        <v>74.22459719004624</v>
       </c>
       <c r="D16" t="n">
-        <v>10.24926718257699</v>
+        <v>10.09228044462616</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.67279238163725</v>
+        <v>74.26436399974983</v>
       </c>
       <c r="D17" t="n">
-        <v>11.55038173323287</v>
+        <v>9.93117942018004</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.40415914146047</v>
+        <v>73.25101578819707</v>
       </c>
       <c r="D18" t="n">
-        <v>11.06435971267173</v>
+        <v>11.20165291947369</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.26790141294575</v>
+        <v>73.84014032304196</v>
       </c>
       <c r="D19" t="n">
-        <v>10.52387559810881</v>
+        <v>10.71421092225093</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.43700832164147</v>
+        <v>70.96906895339197</v>
       </c>
       <c r="D20" t="n">
-        <v>11.94274166021273</v>
+        <v>9.456448286369055</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.46330347887543</v>
+        <v>68.97292304551685</v>
       </c>
       <c r="D21" t="n">
-        <v>11.19459534163328</v>
+        <v>10.85363577160512</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.05905264784485</v>
+        <v>70.86447627551719</v>
       </c>
       <c r="D22" t="n">
-        <v>12.34657807263177</v>
+        <v>10.12508175992375</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.6030022912518</v>
+        <v>68.57319124212455</v>
       </c>
       <c r="D23" t="n">
-        <v>12.24763671613068</v>
+        <v>10.6692152820177</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.25537365838127</v>
+        <v>67.90378908358065</v>
       </c>
       <c r="D24" t="n">
-        <v>11.83185647730069</v>
+        <v>9.674292216437211</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.93171928528476</v>
+        <v>67.64271715060244</v>
       </c>
       <c r="D25" t="n">
-        <v>12.0234008565978</v>
+        <v>11.56736477886686</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.69185920920202</v>
+        <v>65.87118321340229</v>
       </c>
       <c r="D26" t="n">
-        <v>11.07398891198512</v>
+        <v>10.34405797846721</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.90362134536004</v>
+        <v>65.45977773081094</v>
       </c>
       <c r="D27" t="n">
-        <v>11.5978427751004</v>
+        <v>10.0220473261127</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.85031236769218</v>
+        <v>63.10984112608001</v>
       </c>
       <c r="D28" t="n">
-        <v>12.64384881304424</v>
+        <v>9.286841154934447</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.37825624555386</v>
+        <v>63.40751233103746</v>
       </c>
       <c r="D29" t="n">
-        <v>11.379838782043</v>
+        <v>10.05284393571924</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.19091920184587</v>
+        <v>63.68340165336353</v>
       </c>
       <c r="D30" t="n">
-        <v>12.74118146473259</v>
+        <v>9.947300747270921</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.44839301535077</v>
+        <v>60.86124769423802</v>
       </c>
       <c r="D31" t="n">
-        <v>11.09580336237767</v>
+        <v>10.28672864145879</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.62734396137592</v>
+        <v>58.09938857723867</v>
       </c>
       <c r="D32" t="n">
-        <v>11.01106431850247</v>
+        <v>11.27794755968282</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>56.92575390309373</v>
+        <v>59.06886441498948</v>
       </c>
       <c r="D33" t="n">
-        <v>11.5255217548527</v>
+        <v>9.873642366090962</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.75877904464271</v>
+        <v>57.70070634739945</v>
       </c>
       <c r="D34" t="n">
-        <v>12.25316500935371</v>
+        <v>10.52108622500672</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.76929098966646</v>
+        <v>55.4022422403769</v>
       </c>
       <c r="D35" t="n">
-        <v>11.10806071461998</v>
+        <v>10.44488055523736</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.01939811005183</v>
+        <v>53.7145020202485</v>
       </c>
       <c r="D36" t="n">
-        <v>9.488123233728144</v>
+        <v>11.17941177031325</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.57197253946856</v>
+        <v>53.68547865710462</v>
       </c>
       <c r="D37" t="n">
-        <v>9.35803169949444</v>
+        <v>11.15246365164277</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.13922429858047</v>
+        <v>53.82883718225909</v>
       </c>
       <c r="D38" t="n">
-        <v>11.06828480029165</v>
+        <v>10.79400354701854</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.70580280829478</v>
+        <v>52.7860781487355</v>
       </c>
       <c r="D39" t="n">
-        <v>11.76756569204299</v>
+        <v>11.60449229099354</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.45393168310604</v>
+        <v>52.81113401452135</v>
       </c>
       <c r="D40" t="n">
-        <v>11.60076337890108</v>
+        <v>11.29979640920387</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.63381267795245</v>
+        <v>52.15307838799254</v>
       </c>
       <c r="D41" t="n">
-        <v>12.63704153531684</v>
+        <v>10.40707012231223</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>48.80510167405019</v>
+        <v>49.39017609656607</v>
       </c>
       <c r="D42" t="n">
-        <v>11.67980599456567</v>
+        <v>11.1629127272502</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.74801014586729</v>
+        <v>50.99526464510304</v>
       </c>
       <c r="D43" t="n">
-        <v>10.87687951775553</v>
+        <v>11.30998866631467</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>45.95148376588686</v>
+        <v>49.91009045569215</v>
       </c>
       <c r="D44" t="n">
-        <v>11.16846357037056</v>
+        <v>9.945850379234011</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.7924987457763</v>
+        <v>47.08359835333628</v>
       </c>
       <c r="D45" t="n">
-        <v>11.88727758458339</v>
+        <v>11.53661418943678</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.28823567126181</v>
+        <v>46.40200060734304</v>
       </c>
       <c r="D46" t="n">
-        <v>12.06358796876609</v>
+        <v>9.61255994329143</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.04757026209309</v>
+        <v>43.9979295527471</v>
       </c>
       <c r="D47" t="n">
-        <v>10.67749510650634</v>
+        <v>12.42267572208528</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.28285070736164</v>
+        <v>43.85608001986446</v>
       </c>
       <c r="D48" t="n">
-        <v>11.12939084118719</v>
+        <v>10.81495483389994</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.17803136243513</v>
+        <v>43.31178649863381</v>
       </c>
       <c r="D49" t="n">
-        <v>11.28343760595603</v>
+        <v>12.07157307541975</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>38.89739886793384</v>
+        <v>43.56140922458096</v>
       </c>
       <c r="D50" t="n">
-        <v>9.953256417351819</v>
+        <v>9.860607752116659</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.60779291970845</v>
+        <v>41.32207346770601</v>
       </c>
       <c r="D51" t="n">
-        <v>12.12410782718363</v>
+        <v>10.43867730109286</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.3565935689712</v>
+        <v>39.39326160927198</v>
       </c>
       <c r="D52" t="n">
-        <v>10.81773680524833</v>
+        <v>9.448053452262778</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.25473976507669</v>
+        <v>37.98020477757017</v>
       </c>
       <c r="D53" t="n">
-        <v>12.52587526094032</v>
+        <v>10.56661284526728</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.45664134396214</v>
+        <v>37.48762753964122</v>
       </c>
       <c r="D54" t="n">
-        <v>10.35259545659673</v>
+        <v>11.29851929719596</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.28923995087508</v>
+        <v>35.85263813373422</v>
       </c>
       <c r="D55" t="n">
-        <v>11.20353391897235</v>
+        <v>11.65341188255673</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.09314664911269</v>
+        <v>35.31503774134389</v>
       </c>
       <c r="D56" t="n">
-        <v>11.31171853512148</v>
+        <v>10.16130522656254</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.38682551265238</v>
+        <v>34.37813417315804</v>
       </c>
       <c r="D57" t="n">
-        <v>10.92788314498602</v>
+        <v>10.61892570628326</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.64838709487611</v>
+        <v>35.52997561325745</v>
       </c>
       <c r="D58" t="n">
-        <v>10.30301625962773</v>
+        <v>9.487062583628033</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>35.46342481361669</v>
+        <v>35.68800253052641</v>
       </c>
       <c r="D59" t="n">
-        <v>10.77963794029016</v>
+        <v>11.24150380381465</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.36891401439356</v>
+        <v>30.24084436063408</v>
       </c>
       <c r="D60" t="n">
-        <v>11.35648203490531</v>
+        <v>11.02151116016514</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>33.13321294225194</v>
+        <v>32.21175579555359</v>
       </c>
       <c r="D61" t="n">
-        <v>10.0905451812891</v>
+        <v>10.92774321383869</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.31672076299374</v>
+        <v>29.31600992072138</v>
       </c>
       <c r="D62" t="n">
-        <v>11.57624699499686</v>
+        <v>10.84153058754369</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.23930882941062</v>
+        <v>29.05014580643104</v>
       </c>
       <c r="D63" t="n">
-        <v>9.669982477559172</v>
+        <v>11.40756746977215</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.41076870353836</v>
+        <v>27.81389846350164</v>
       </c>
       <c r="D64" t="n">
-        <v>11.74734096280381</v>
+        <v>11.71733319079842</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>24.65515347752163</v>
+        <v>28.29108074705974</v>
       </c>
       <c r="D65" t="n">
-        <v>11.78101112750893</v>
+        <v>11.09449464715412</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.07732099899637</v>
+        <v>26.97234843884678</v>
       </c>
       <c r="D66" t="n">
-        <v>12.57125666666293</v>
+        <v>11.31110847988565</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.62045164415657</v>
+        <v>25.75270269261413</v>
       </c>
       <c r="D67" t="n">
-        <v>11.1980652181321</v>
+        <v>12.51726683407954</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.84718451618079</v>
+        <v>24.38952993363556</v>
       </c>
       <c r="D68" t="n">
-        <v>11.38133685873193</v>
+        <v>12.20469832044042</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>21.72969719254302</v>
+        <v>22.9854371098078</v>
       </c>
       <c r="D69" t="n">
-        <v>11.77716080962354</v>
+        <v>12.92780147138187</v>
       </c>
     </row>
   </sheetData>
